--- a/4 principle component analysis/4.1.xlsx
+++ b/4 principle component analysis/4.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12647" tabRatio="839" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12647" tabRatio="839"/>
   </bookViews>
   <sheets>
     <sheet name="pca引例" sheetId="2" r:id="rId1"/>
@@ -1044,20 +1044,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>59268</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>88901</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>30809</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>68488</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>538472</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>143297</xdr:rowOff>
+      <xdr:rowOff>81302</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1070,8 +1070,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="59268" y="265444"/>
-          <a:ext cx="7568277" cy="4291417"/>
+          <a:off x="7752409" y="601888"/>
+          <a:ext cx="6298863" cy="3924414"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1082,20 +1082,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>475309</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>76955</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>182033</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>339505</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>89769</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>84672</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="4" name="图片 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1108,8 +1108,45 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7645654" y="606583"/>
-          <a:ext cx="6382691" cy="3896750"/>
+          <a:off x="825500" y="5448300"/>
+          <a:ext cx="5080000" cy="3348572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>207434</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>446444</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>118652</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect l="58" t="3446" r="-58" b="-1809"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="207434" y="262466"/>
+          <a:ext cx="7317143" cy="4834586"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4718,25 +4755,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="30" spans="3:11">
+      <c r="C30" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="K30" s="30" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4744,7 +4783,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="https://www.geogebra.org/calculator/xq7wd4hj"/>
-    <hyperlink ref="E1" r:id="rId2" display="https://www.aiuai.cn/aifarm1946.html"/>
+    <hyperlink ref="C30" r:id="rId2" display="https://www.aiuai.cn/aifarm1946.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
@@ -4755,7 +4794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>

--- a/4 principle component analysis/4.1.xlsx
+++ b/4 principle component analysis/4.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12647" tabRatio="839"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12647" tabRatio="839" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="pca引例" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="162">
   <si>
     <t>身高</t>
   </si>
@@ -686,6 +686,35 @@
       </rPr>
       <t>（最优变换）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PCA</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>算法原理:为什么用协方差矩阵以及协方差矩阵的特征值特</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.codinglabs.org/articles/pca-tutorial.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.real-statistics.com/linear-algebra-matrix-topics/eigenvalues-eigenvectors/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">λ1*λ2=det (c) </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1188,8 +1217,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1952540" y="4802579"/>
-          <a:ext cx="1766036" cy="374457"/>
+          <a:off x="1950953" y="4815279"/>
+          <a:ext cx="1765507" cy="373399"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1317,13 +1346,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>220870</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>62580</xdr:rowOff>
+      <xdr:rowOff>42143</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>434378</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>34103</xdr:rowOff>
+      <xdr:rowOff>13666</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1340,8 +1369,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4081670" y="595980"/>
-          <a:ext cx="3680609" cy="1423371"/>
+          <a:off x="4927169" y="582258"/>
+          <a:ext cx="3676083" cy="1419615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1898,6 +1927,59 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>248161</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>40873</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="330155" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="文本框 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4954460" y="1667057"/>
+          <a:ext cx="330155" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>C=</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4757,8 +4839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -4794,8 +4876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE117"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -4820,79 +4902,79 @@
       </c>
       <c r="G1" s="5">
         <f t="array" ref="G1:AE2">TRANSPOSE(E2:F26)</f>
-        <v>-1.749959253653067</v>
+        <v>-7.8800000000000008</v>
       </c>
       <c r="H1" s="5">
-        <v>-1.527883206235165</v>
+        <v>-6.8800000000000008</v>
       </c>
       <c r="I1" s="5">
-        <v>-1.0837311113993613</v>
+        <v>-4.8800000000000008</v>
       </c>
       <c r="J1" s="5">
-        <v>-1.0837311113993613</v>
+        <v>-4.8800000000000008</v>
       </c>
       <c r="K1">
-        <v>-1.0837311113993613</v>
+        <v>-4.8800000000000008</v>
       </c>
       <c r="L1">
-        <v>-0.86165506398145941</v>
+        <v>-3.8800000000000008</v>
       </c>
       <c r="M1">
-        <v>-0.86165506398145941</v>
+        <v>-3.8800000000000008</v>
       </c>
       <c r="N1">
-        <v>-0.63957901656355753</v>
+        <v>-2.8800000000000008</v>
       </c>
       <c r="O1">
-        <v>-0.41750296914565571</v>
+        <v>-1.8800000000000008</v>
       </c>
       <c r="P1">
-        <v>-0.41750296914565571</v>
+        <v>-1.8800000000000008</v>
       </c>
       <c r="Q1">
-        <v>-0.41750296914565571</v>
+        <v>-1.8800000000000008</v>
       </c>
       <c r="R1">
-        <v>-0.19542692172775383</v>
+        <v>-0.88000000000000078</v>
       </c>
       <c r="S1">
-        <v>2.6649125690148052E-2</v>
+        <v>0.11999999999999922</v>
       </c>
       <c r="T1">
-        <v>0.24872517310804992</v>
+        <v>1.1199999999999992</v>
       </c>
       <c r="U1" s="5">
-        <v>0.24872517310804992</v>
+        <v>1.1199999999999992</v>
       </c>
       <c r="V1" s="5">
-        <v>0.4708012205259518</v>
+        <v>2.1199999999999992</v>
       </c>
       <c r="W1">
-        <v>0.4708012205259518</v>
+        <v>2.1199999999999992</v>
       </c>
       <c r="X1">
-        <v>0.4708012205259518</v>
+        <v>2.1199999999999992</v>
       </c>
       <c r="Y1">
-        <v>0.4708012205259518</v>
+        <v>2.1199999999999992</v>
       </c>
       <c r="Z1">
-        <v>0.69287726794385363</v>
+        <v>3.1199999999999992</v>
       </c>
       <c r="AA1">
-        <v>0.9149533153617555</v>
+        <v>4.1199999999999992</v>
       </c>
       <c r="AB1">
-        <v>1.3591054101975593</v>
+        <v>6.1199999999999992</v>
       </c>
       <c r="AC1">
-        <v>1.3591054101975593</v>
+        <v>6.1199999999999992</v>
       </c>
       <c r="AD1">
-        <v>1.5811814576154612</v>
+        <v>7.1199999999999992</v>
       </c>
       <c r="AE1">
-        <v>2.025333552451265</v>
+        <v>9.1199999999999992</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="14.35">
@@ -4905,87 +4987,87 @@
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
       <c r="E2">
-        <f>(A2-A$27)/A$28</f>
-        <v>-1.749959253653067</v>
+        <f>(A2-A$27)</f>
+        <v>-7.8800000000000008</v>
       </c>
       <c r="F2">
-        <f>(B2-B$27)/B$28</f>
-        <v>-1.7695869776555053</v>
+        <f>(B2-B$27)</f>
+        <v>-8.68</v>
       </c>
       <c r="G2">
-        <v>-1.7695869776555053</v>
+        <v>-8.68</v>
       </c>
       <c r="H2">
-        <v>-0.138631237880846</v>
+        <v>-0.67999999999999972</v>
       </c>
       <c r="I2">
-        <v>-1.157978575240008</v>
+        <v>-5.68</v>
       </c>
       <c r="J2">
-        <v>-0.54637017282451084</v>
+        <v>-2.6799999999999997</v>
       </c>
       <c r="K2">
-        <v>-0.138631237880846</v>
+        <v>-0.67999999999999972</v>
       </c>
       <c r="L2">
-        <v>-1.7695869776555053</v>
+        <v>-8.68</v>
       </c>
       <c r="M2">
-        <v>0.47297716453465127</v>
+        <v>2.3200000000000003</v>
       </c>
       <c r="N2">
-        <v>-0.3425007053526784</v>
+        <v>-1.6799999999999997</v>
       </c>
       <c r="O2">
-        <v>-1.157978575240008</v>
+        <v>-5.68</v>
       </c>
       <c r="P2">
-        <v>-0.54637017282451084</v>
+        <v>-2.6799999999999997</v>
       </c>
       <c r="Q2" s="19">
-        <v>0.67684663200648376</v>
+        <v>3.3200000000000003</v>
       </c>
       <c r="R2">
-        <v>-0.75023964029634327</v>
+        <v>-3.6799999999999997</v>
       </c>
       <c r="S2">
-        <v>0.26910769706281884</v>
+        <v>1.3200000000000003</v>
       </c>
       <c r="T2">
-        <v>-0.138631237880846</v>
+        <v>-0.67999999999999972</v>
       </c>
       <c r="U2">
-        <v>6.5238229590986435E-2</v>
+        <v>0.32000000000000028</v>
       </c>
       <c r="V2">
-        <v>-0.9541091077681757</v>
+        <v>-4.68</v>
       </c>
       <c r="W2">
-        <v>0.67684663200648376</v>
+        <v>3.3200000000000003</v>
       </c>
       <c r="X2">
-        <v>0.88071609947831619</v>
+        <v>4.32</v>
       </c>
       <c r="Y2">
-        <v>1.2884550344219809</v>
+        <v>6.32</v>
       </c>
       <c r="Z2">
-        <v>-0.75023964029634327</v>
+        <v>-3.6799999999999997</v>
       </c>
       <c r="AA2">
-        <v>0.47297716453465127</v>
+        <v>2.3200000000000003</v>
       </c>
       <c r="AB2">
-        <v>0.47297716453465127</v>
+        <v>2.3200000000000003</v>
       </c>
       <c r="AC2">
-        <v>1.2884550344219809</v>
+        <v>6.32</v>
       </c>
       <c r="AD2">
-        <v>1.6961939693656458</v>
+        <v>8.32</v>
       </c>
       <c r="AE2">
-        <v>1.9000634368374782</v>
+        <v>9.32</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="14.35">
@@ -4998,12 +5080,12 @@
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3">
-        <f t="shared" ref="E3:F26" si="0">(A3-A$27)/A$28</f>
-        <v>-1.527883206235165</v>
+        <f t="shared" ref="E3:E26" si="0">(A3-A$27)</f>
+        <v>-6.8800000000000008</v>
       </c>
       <c r="F3">
-        <f t="shared" si="0"/>
-        <v>-0.138631237880846</v>
+        <f t="shared" ref="F3:F26" si="1">(B3-B$27)</f>
+        <v>-0.67999999999999972</v>
       </c>
       <c r="G3" s="31" t="s">
         <v>98</v>
@@ -5023,11 +5105,11 @@
       <c r="D4" s="18"/>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>-1.0837311113993613</v>
+        <v>-4.8800000000000008</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
-        <v>-1.157978575240008</v>
+        <f t="shared" si="1"/>
+        <v>-5.68</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="14.35">
@@ -5041,11 +5123,11 @@
       <c r="D5" s="18"/>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>-1.0837311113993613</v>
+        <v>-4.8800000000000008</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
-        <v>-0.54637017282451084</v>
+        <f t="shared" si="1"/>
+        <v>-2.6799999999999997</v>
       </c>
       <c r="V5" t="s">
         <v>62</v>
@@ -5062,14 +5144,14 @@
       <c r="D6" s="18"/>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>-1.0837311113993613</v>
+        <v>-4.8800000000000008</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
-        <v>-0.138631237880846</v>
+        <f t="shared" si="1"/>
+        <v>-0.67999999999999972</v>
       </c>
       <c r="V6" s="16" t="s">
-        <v>57</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="14.35">
@@ -5083,14 +5165,14 @@
       <c r="D7" s="18"/>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>-0.86165506398145941</v>
+        <v>-3.8800000000000008</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>-1.7695869776555053</v>
+        <f t="shared" si="1"/>
+        <v>-8.68</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>65</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="14.35">
@@ -5104,11 +5186,11 @@
       <c r="D8" s="18"/>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>-0.86165506398145941</v>
+        <v>-3.8800000000000008</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
-        <v>0.47297716453465127</v>
+        <f t="shared" si="1"/>
+        <v>2.3200000000000003</v>
       </c>
       <c r="V8" t="s">
         <v>59</v>
@@ -5125,11 +5207,11 @@
       <c r="D9" s="18"/>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>-0.63957901656355753</v>
+        <v>-2.8800000000000008</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
-        <v>-0.3425007053526784</v>
+        <f t="shared" si="1"/>
+        <v>-1.6799999999999997</v>
       </c>
       <c r="V9" t="s">
         <v>60</v>
@@ -5146,11 +5228,11 @@
       <c r="D10" s="18"/>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>-0.41750296914565571</v>
+        <v>-1.8800000000000008</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
-        <v>-1.157978575240008</v>
+        <f t="shared" si="1"/>
+        <v>-5.68</v>
       </c>
       <c r="V10" t="s">
         <v>61</v>
@@ -5167,11 +5249,11 @@
       <c r="D11" s="18"/>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>-0.41750296914565571</v>
+        <v>-1.8800000000000008</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
-        <v>-0.54637017282451084</v>
+        <f t="shared" si="1"/>
+        <v>-2.6799999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="14.35">
@@ -5185,11 +5267,11 @@
       <c r="D12" s="18"/>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>-0.41750296914565571</v>
+        <v>-1.8800000000000008</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
-        <v>0.67684663200648376</v>
+        <f t="shared" si="1"/>
+        <v>3.3200000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="14.35">
@@ -5203,11 +5285,11 @@
       <c r="D13" s="18"/>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>-0.19542692172775383</v>
+        <v>-0.88000000000000078</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
-        <v>-0.75023964029634327</v>
+        <f t="shared" si="1"/>
+        <v>-3.6799999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="14.35">
@@ -5221,11 +5303,11 @@
       <c r="D14" s="18"/>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>2.6649125690148052E-2</v>
+        <v>0.11999999999999922</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
-        <v>0.26910769706281884</v>
+        <f t="shared" si="1"/>
+        <v>1.3200000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="14.35">
@@ -5239,11 +5321,11 @@
       <c r="D15" s="18"/>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>0.24872517310804992</v>
+        <v>1.1199999999999992</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
-        <v>-0.138631237880846</v>
+        <f t="shared" si="1"/>
+        <v>-0.67999999999999972</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="14.35">
@@ -5257,11 +5339,11 @@
       <c r="D16" s="18"/>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>0.24872517310804992</v>
+        <v>1.1199999999999992</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
-        <v>6.5238229590986435E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.32000000000000028</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="14.35">
@@ -5275,11 +5357,11 @@
       <c r="D17" s="18"/>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>0.4708012205259518</v>
+        <v>2.1199999999999992</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
-        <v>-0.9541091077681757</v>
+        <f t="shared" si="1"/>
+        <v>-4.68</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.35">
@@ -5293,11 +5375,11 @@
       <c r="D18" s="18"/>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>0.4708012205259518</v>
+        <v>2.1199999999999992</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
-        <v>0.67684663200648376</v>
+        <f t="shared" si="1"/>
+        <v>3.3200000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="14.35">
@@ -5311,11 +5393,11 @@
       <c r="D19" s="18"/>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>0.4708012205259518</v>
+        <v>2.1199999999999992</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
-        <v>0.88071609947831619</v>
+        <f t="shared" si="1"/>
+        <v>4.32</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.35">
@@ -5329,11 +5411,11 @@
       <c r="D20" s="18"/>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>0.4708012205259518</v>
+        <v>2.1199999999999992</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
-        <v>1.2884550344219809</v>
+        <f t="shared" si="1"/>
+        <v>6.32</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="14.35">
@@ -5347,11 +5429,11 @@
       <c r="D21" s="18"/>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>0.69287726794385363</v>
+        <v>3.1199999999999992</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
-        <v>-0.75023964029634327</v>
+        <f t="shared" si="1"/>
+        <v>-3.6799999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="14.35">
@@ -5365,11 +5447,11 @@
       <c r="D22" s="18"/>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>0.9149533153617555</v>
+        <v>4.1199999999999992</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
-        <v>0.47297716453465127</v>
+        <f t="shared" si="1"/>
+        <v>2.3200000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="14.35">
@@ -5383,11 +5465,11 @@
       <c r="D23" s="18"/>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>1.3591054101975593</v>
+        <v>6.1199999999999992</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
-        <v>0.47297716453465127</v>
+        <f t="shared" si="1"/>
+        <v>2.3200000000000003</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="14.35">
@@ -5401,11 +5483,11 @@
       <c r="D24" s="18"/>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>1.3591054101975593</v>
+        <v>6.1199999999999992</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
-        <v>1.2884550344219809</v>
+        <f t="shared" si="1"/>
+        <v>6.32</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="14.35">
@@ -5419,11 +5501,11 @@
       <c r="D25" s="18"/>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>1.5811814576154612</v>
+        <v>7.1199999999999992</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
-        <v>1.6961939693656458</v>
+        <f t="shared" si="1"/>
+        <v>8.32</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="14.35">
@@ -5437,11 +5519,11 @@
       <c r="D26" s="18"/>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>2.025333552451265</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
-        <v>1.9000634368374782</v>
+        <f t="shared" si="1"/>
+        <v>9.32</v>
       </c>
       <c r="K26" s="30" t="s">
         <v>97</v>
@@ -5547,21 +5629,21 @@
     <row r="36" spans="1:12">
       <c r="A36" s="3">
         <f t="array" ref="A36:B37">MMULT(G1:AE2,E2:F26)/24</f>
-        <v>1.0000000000000007</v>
+        <v>20.276666666666667</v>
       </c>
       <c r="B36" s="22">
-        <v>0.70560348031237818</v>
+        <v>15.585000000000003</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="3">
-        <v>0.70560348031237818</v>
+        <v>15.585000000000003</v>
       </c>
       <c r="B37" s="22">
-        <v>0.99999999999999989</v>
+        <v>24.060000000000002</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>91</v>
@@ -5571,11 +5653,11 @@
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="D38" s="30" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="E38">
         <f>MDETERM(A36:B37)</f>
-        <v>0.50212372857105991</v>
+        <v>244.96437499999996</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -5587,7 +5669,7 @@
       </c>
       <c r="E39">
         <f>A36+B37</f>
-        <v>2.0000000000000004</v>
+        <v>44.336666666666673</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -5888,10 +5970,10 @@
       </c>
       <c r="E88" s="44">
         <f t="array" ref="E88:F112">MMULT(E2:F26,A80:B81)</f>
-        <v>-2.4886950068578484</v>
+        <v>-11.709688296449226</v>
       </c>
       <c r="F88" s="44">
-        <v>-1.3878896741382096E-2</v>
+        <v>-0.5656854249492369</v>
       </c>
       <c r="G88" s="3">
         <f>C88/A$114</f>
@@ -5916,25 +5998,25 @@
         <v>-3.6373882125691868</v>
       </c>
       <c r="C89" s="3">
-        <f t="shared" ref="C89:D112" si="1">A89-A$113</f>
+        <f t="shared" ref="C89:D112" si="2">A89-A$113</f>
         <v>-5.0723976131252577</v>
       </c>
       <c r="D89" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.6987281771637406</v>
       </c>
       <c r="E89" s="44">
-        <v>-1.1784036643797609</v>
+        <v>-5.3457272657702992</v>
       </c>
       <c r="F89" s="44">
-        <v>0.98234948760009777</v>
+        <v>4.3840620433565958</v>
       </c>
       <c r="G89" s="3">
-        <f t="shared" ref="G89:H112" si="2">C89/A$114</f>
+        <f t="shared" ref="G89:H112" si="3">C89/A$114</f>
         <v>-0.82428754985661912</v>
       </c>
       <c r="H89" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.8474105293992473</v>
       </c>
     </row>
@@ -5946,25 +6028,25 @@
         <v>1.1752953462689453</v>
       </c>
       <c r="C90" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-7.4875521216518752</v>
       </c>
       <c r="D90" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11395538167439101</v>
       </c>
       <c r="E90" s="44">
-        <v>-1.5851281208742685</v>
+        <v>-7.467047609329942</v>
       </c>
       <c r="F90" s="44">
-        <v>-5.25008851676243E-2</v>
+        <v>-0.56568542494923735</v>
       </c>
       <c r="G90" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.2167610789836056</v>
       </c>
       <c r="H90" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.4804118061167797E-2</v>
       </c>
     </row>
@@ -5976,25 +6058,25 @@
         <v>-0.81411795326787217</v>
       </c>
       <c r="C91" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.2424968997631449</v>
       </c>
       <c r="D91" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.8754579178624264</v>
       </c>
       <c r="E91" s="44">
-        <v>-1.1526556720955996</v>
+        <v>-5.3457272657702992</v>
       </c>
       <c r="F91" s="44">
-        <v>0.37997156361104456</v>
+        <v>1.555634918610405</v>
       </c>
       <c r="G91" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.85192945313571056</v>
       </c>
       <c r="H91" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.73737840842617797</v>
       </c>
     </row>
@@ -6006,25 +6088,25 @@
         <v>-2.1403934862924174</v>
       </c>
       <c r="C92" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.7457934185039932</v>
       </c>
       <c r="D92" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.2017334508869717</v>
       </c>
       <c r="E92" s="44">
-        <v>-0.86434070624315362</v>
+        <v>-3.9315137033972043</v>
       </c>
       <c r="F92" s="44">
-        <v>0.66828652946349054</v>
+        <v>2.9698484809835</v>
       </c>
       <c r="G92" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.60870836923711413</v>
       </c>
       <c r="H92" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.2588334260844085</v>
       </c>
     </row>
@@ -6036,25 +6118,25 @@
         <v>3.9132060089441474</v>
       </c>
       <c r="C93" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-9.0693052462299715</v>
       </c>
       <c r="D93" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.8518660443495931</v>
       </c>
       <c r="E93" s="44">
-        <v>-1.8605690905846335</v>
+        <v>-8.8812611717030361</v>
       </c>
       <c r="F93" s="44">
-        <v>-0.64200481301459689</v>
+        <v>-3.3941125496954268</v>
       </c>
       <c r="G93" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.4738031145217478</v>
       </c>
       <c r="H93" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1212751962059331</v>
       </c>
     </row>
@@ -6066,25 +6148,25 @@
         <v>-3.3813094226908502</v>
       </c>
       <c r="C94" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.83743609930463059</v>
       </c>
       <c r="D94" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.4426493872854049</v>
       </c>
       <c r="E94" s="44">
-        <v>-0.27483677839618104</v>
+        <v>-1.1030865786510144</v>
       </c>
       <c r="F94" s="44">
-        <v>0.94372749917385568</v>
+        <v>4.3840620433565949</v>
       </c>
       <c r="G94" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.13608715307946667</v>
       </c>
       <c r="H94" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.746727400914335</v>
       </c>
     </row>
@@ -6096,25 +6178,25 @@
         <v>1.9739006496624967E-2</v>
       </c>
       <c r="C95" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.1675409645123036</v>
       </c>
       <c r="D95" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.0416009580979293</v>
       </c>
       <c r="E95" s="44">
-        <v>-0.69443523103276927</v>
+        <v>-3.2244069222106568</v>
       </c>
       <c r="F95" s="44">
-        <v>0.21006608840066016</v>
+        <v>0.84852813742385758</v>
       </c>
       <c r="G95" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.51473973056690725</v>
       </c>
       <c r="H95" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.40952881394045415</v>
       </c>
     </row>
@@ -6126,25 +6208,25 @@
         <v>3.4207874356840993</v>
       </c>
       <c r="C96" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.4976458297199784</v>
       </c>
       <c r="D96" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.359447471089545</v>
       </c>
       <c r="E96" s="44">
-        <v>-1.1140336836693574</v>
+        <v>-5.3457272657702992</v>
       </c>
       <c r="F96" s="44">
-        <v>-0.52359532237253537</v>
+        <v>-2.6870057685088797</v>
       </c>
       <c r="G96" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.89339230805434822</v>
       </c>
       <c r="H96" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.92766977303342613</v>
       </c>
     </row>
@@ -6156,25 +6238,25 @@
         <v>1.4313741361472818</v>
       </c>
       <c r="C97" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.2525906078312499</v>
       </c>
       <c r="D97" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.37003417155272755</v>
       </c>
       <c r="E97" s="44">
-        <v>-0.68156123489068854</v>
+        <v>-3.2244069222106568</v>
       </c>
       <c r="F97" s="44">
-        <v>-9.1122873593866449E-2</v>
+        <v>-0.56568542494923735</v>
       </c>
       <c r="G97" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.52856068220645347</v>
       </c>
       <c r="H97" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.14548724654608045</v>
       </c>
     </row>
@@ -6186,25 +6268,25 @@
         <v>-2.547452462926354</v>
       </c>
       <c r="C98" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2375198359462072</v>
       </c>
       <c r="D98" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.6087924275209082</v>
       </c>
       <c r="E98" s="44">
-        <v>0.18338366266664924</v>
+        <v>1.0182337649086279</v>
       </c>
       <c r="F98" s="44">
-        <v>0.77382202396347144</v>
+        <v>3.6769552621700474</v>
       </c>
       <c r="G98" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.20110256948933602</v>
       </c>
       <c r="H98" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.4188778064286114</v>
       </c>
     </row>
@@ -6216,25 +6298,25 @@
         <v>2.8430092657979387</v>
       </c>
       <c r="C99" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.3376402511501926</v>
       </c>
       <c r="D99" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7816693012033844</v>
       </c>
       <c r="E99" s="44">
-        <v>-0.66868723874860792</v>
+        <v>-3.2244069222106568</v>
       </c>
       <c r="F99" s="44">
-        <v>-0.39231183558839311</v>
+        <v>-1.9798989873223323</v>
       </c>
       <c r="G99" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.54238163384599902</v>
       </c>
       <c r="H99" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.70050330703261499</v>
       </c>
     </row>
@@ -6246,25 +6328,25 @@
         <v>0.2758177963749624</v>
       </c>
       <c r="C100" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0674205493083218</v>
       </c>
       <c r="D100" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.78552216821959187</v>
       </c>
       <c r="E100" s="44">
-        <v>0.20913165495081065</v>
+        <v>1.0182337649086279</v>
       </c>
       <c r="F100" s="44">
-        <v>0.17144409997441801</v>
+        <v>0.84852813742385769</v>
       </c>
       <c r="G100" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.17346066621024486</v>
       </c>
       <c r="H100" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.30884568545554114</v>
       </c>
     </row>
@@ -6276,25 +6358,25 @@
         <v>2.3505906925378905</v>
       </c>
       <c r="C101" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.23401916535979872</v>
       </c>
       <c r="D101" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2892507279433363</v>
       </c>
       <c r="E101" s="44">
-        <v>7.7848168166668411E-2</v>
+        <v>0.31112698372208059</v>
       </c>
       <c r="F101" s="44">
-        <v>-0.27390234494633159</v>
+        <v>-1.2727922061357848</v>
       </c>
       <c r="G101" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.8029172621400341E-2</v>
       </c>
       <c r="H101" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.50689788386010826</v>
       </c>
     </row>
@@ -6306,25 +6388,25 @@
         <v>1.6874529260256184</v>
       </c>
       <c r="C102" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.98237090598937549</v>
       </c>
       <c r="D102" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.6261129614310641</v>
       </c>
       <c r="E102" s="44">
-        <v>0.22200565109289139</v>
+        <v>1.0182337649086279</v>
       </c>
       <c r="F102" s="44">
-        <v>-0.1297448620201086</v>
+        <v>-0.56568542494923724</v>
       </c>
       <c r="G102" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1596397145706987</v>
       </c>
       <c r="H102" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.24617037503099309</v>
       </c>
     </row>
@@ -6336,25 +6418,25 @@
         <v>5.7516391217253648</v>
       </c>
       <c r="C103" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.0960856998478743</v>
       </c>
       <c r="D103" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.690299157130811</v>
       </c>
       <c r="E103" s="44">
-        <v>-0.34175028446991973</v>
+        <v>-1.8101933598375619</v>
       </c>
       <c r="F103" s="44">
-        <v>-1.0075637557195272</v>
+        <v>-4.8083261120685226</v>
       </c>
       <c r="G103" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.34062340486604031</v>
       </c>
       <c r="H103" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8440964708339886</v>
       </c>
     </row>
@@ -6366,25 +6448,25 @@
         <v>0.4465369896271838</v>
       </c>
       <c r="C104" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8907282251887363</v>
       </c>
       <c r="D104" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.61480297496737046</v>
       </c>
       <c r="E104" s="44">
-        <v>0.81150957893986397</v>
+        <v>3.8466608896548178</v>
       </c>
       <c r="F104" s="44">
-        <v>0.14569610769025665</v>
+        <v>0.84852813742385758</v>
       </c>
       <c r="G104" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.63226093072834588</v>
       </c>
       <c r="H104" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.24172359979893387</v>
       </c>
     </row>
@@ -6396,25 +6478,25 @@
         <v>-0.2166007768850875</v>
       </c>
       <c r="C105" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.6390799658183131</v>
       </c>
       <c r="D105" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.2779407414796418</v>
       </c>
       <c r="E105" s="44">
-        <v>0.95566706186608696</v>
+        <v>4.5537676708413652</v>
       </c>
       <c r="F105" s="44">
-        <v>0.28985359061647964</v>
+        <v>1.555634918610405</v>
       </c>
       <c r="G105" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.75387147267764421</v>
       </c>
       <c r="H105" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.50245110862804865</v>
       </c>
     </row>
@@ -6426,25 +6508,25 @@
         <v>-1.5428763099096336</v>
       </c>
       <c r="C106" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.1357834470774666</v>
       </c>
       <c r="D106" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.6042162745041879</v>
       </c>
       <c r="E106" s="44">
-        <v>1.2439820277185327</v>
+        <v>5.9679812332144602</v>
       </c>
       <c r="F106" s="44">
-        <v>0.57816855646892551</v>
+        <v>2.9698484809835</v>
       </c>
       <c r="G106" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.99709255657624096</v>
       </c>
       <c r="H106" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.0239061262862796</v>
       </c>
     </row>
@@ -6456,25 +6538,25 @@
         <v>5.8369987183514773</v>
       </c>
       <c r="C107" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.68443186190766525</v>
       </c>
       <c r="D107" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.7756587537569235</v>
       </c>
       <c r="E107" s="44">
-        <v>-4.056132247539318E-2</v>
+        <v>-0.39597979746446699</v>
       </c>
       <c r="F107" s="44">
-        <v>-1.0204377518616079</v>
+        <v>-4.8083261120685226</v>
       </c>
       <c r="G107" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.11122327260698947</v>
       </c>
       <c r="H107" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8776575136622931</v>
       </c>
     </row>
@@ -6486,25 +6568,25 @@
         <v>2.606669482416228</v>
       </c>
       <c r="C108" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.4689806791804276</v>
       </c>
       <c r="D108" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5453295178216737</v>
       </c>
       <c r="E108" s="44">
-        <v>0.98141505415024832</v>
+        <v>4.5537676708413652</v>
       </c>
       <c r="F108" s="44">
-        <v>-0.31252433337257368</v>
+        <v>-1.2727922061357848</v>
       </c>
       <c r="G108" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.7262295693985531</v>
       </c>
       <c r="H108" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.60758101234502127</v>
       </c>
     </row>
@@ -6516,25 +6598,25 @@
         <v>4.1036642086929955</v>
       </c>
       <c r="C109" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.7955848738016886</v>
       </c>
       <c r="D109" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0423242440984413</v>
       </c>
       <c r="E109" s="44">
-        <v>1.2954780122868557</v>
+        <v>5.9679812332144602</v>
       </c>
       <c r="F109" s="44">
-        <v>-0.62658729150918102</v>
+        <v>-2.6870057685088797</v>
       </c>
       <c r="G109" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.94180875001805742</v>
       </c>
       <c r="H109" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1961581156598595</v>
       </c>
     </row>
@@ -6546,25 +6628,25 @@
         <v>1.451113142643905</v>
       </c>
       <c r="C110" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.7889918363199957</v>
       </c>
       <c r="D110" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.38977317804935074</v>
       </c>
       <c r="E110" s="44">
-        <v>1.8721079439917476</v>
+        <v>8.7964083579606509</v>
       </c>
       <c r="F110" s="44">
-        <v>-4.995735980428917E-2</v>
+        <v>0.14142135623731011</v>
       </c>
       <c r="G110" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4282509178152507</v>
       </c>
       <c r="H110" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15324808034339826</v>
       </c>
     </row>
@@ -6576,25 +6658,25 @@
         <v>0.87333497275774619</v>
       </c>
       <c r="C111" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.94899741488978</v>
       </c>
       <c r="D111" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.18800499183680808</v>
       </c>
       <c r="E111" s="44">
-        <v>2.3174543889124974</v>
+        <v>10.917728701520293</v>
       </c>
       <c r="F111" s="44">
-        <v>8.1326126979852864E-2</v>
+        <v>0.84852813742385802</v>
       </c>
       <c r="G111" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7792615920235997</v>
       </c>
       <c r="H111" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-7.3918385657412197E-2</v>
       </c>
     </row>
@@ -6606,25 +6688,25 @@
         <v>1.7071919325222424</v>
       </c>
       <c r="C112" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.023953350140621</v>
       </c>
       <c r="D112" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.64585196792768818</v>
       </c>
       <c r="E112" s="44">
-        <v>2.7756748299753276</v>
+        <v>13.039049045079935</v>
       </c>
       <c r="F112" s="44">
-        <v>-8.8579348230531263E-2</v>
+        <v>0.141421356237311</v>
       </c>
       <c r="G112" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.1164513145924029</v>
       </c>
       <c r="H112" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.25393120882831127</v>
       </c>
     </row>
@@ -6678,7 +6760,7 @@
       </c>
       <c r="F116" s="38">
         <f>_xlfn.COVARIANCE.S(E88:E112,E88:E112)</f>
-        <v>1.7056034803123776</v>
+        <v>37.753333333333323</v>
       </c>
       <c r="G116" s="38"/>
     </row>
@@ -6699,11 +6781,11 @@
       </c>
       <c r="F117" s="39">
         <f>_xlfn.COVARIANCE.S(E88:E112,F88:F112)</f>
-        <v>-3.0993726104118952E-16</v>
-      </c>
-      <c r="G117" s="39" t="e">
-        <f ca="1">[1]!COVARS(F88:F112,F88:F112)</f>
-        <v>#NAME?</v>
+        <v>1.8916666666666666</v>
+      </c>
+      <c r="G117" s="39">
+        <f>_xlfn.COVARIANCE.S(F88:F112,F88:F112)</f>
+        <v>6.583333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -6716,10 +6798,11 @@
     <hyperlink ref="L73" r:id="rId5" display="https://zhuanlan.zhihu.com/p/234967628"/>
     <hyperlink ref="C53" r:id="rId6" display="https://www.geogebra.org/m/rjam6ege"/>
     <hyperlink ref="C84" r:id="rId7" display="https://www.geogebra.org/m/c5s9yhbp"/>
+    <hyperlink ref="V7" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
-  <drawing r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <drawing r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -6727,7 +6810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE117"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
@@ -8678,7 +8761,7 @@
   <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>

--- a/4 principle component analysis/4.1.xlsx
+++ b/4 principle component analysis/4.1.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="161">
   <si>
     <t>身高</t>
   </si>
@@ -689,32 +689,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>PCA</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>算法原理:为什么用协方差矩阵以及协方差矩阵的特征值特</t>
-    </r>
+    <t xml:space="preserve">λ1*λ2=det (c) </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://blog.codinglabs.org/articles/pca-tutorial.html</t>
+    <t>EX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.real-statistics.com/linear-algebra-matrix-topics/eigenvalues-eigenvectors/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">λ1*λ2=det (c) </t>
+    <t>XTET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1217,8 +1200,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1950953" y="4815279"/>
-          <a:ext cx="1765507" cy="373399"/>
+          <a:off x="1952540" y="4802579"/>
+          <a:ext cx="1766036" cy="374457"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1346,13 +1329,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>220870</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>42143</xdr:rowOff>
+      <xdr:rowOff>62580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>434378</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>13666</xdr:rowOff>
+      <xdr:rowOff>34103</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1369,8 +1352,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4927169" y="582258"/>
-          <a:ext cx="3676083" cy="1419615"/>
+          <a:off x="4081670" y="595980"/>
+          <a:ext cx="3680609" cy="1423371"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1927,59 +1910,158 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>599181</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>52103</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>248161</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>40873</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="330155" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="文本框 8"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
+      <xdr:colOff>638259</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>23157</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4954460" y="1667057"/>
-          <a:ext cx="330155" cy="264560"/>
+          <a:off x="4217053" y="6760308"/>
+          <a:ext cx="1139744" cy="329259"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>C=</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>149796</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>39796</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>726180</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>24545</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5513104" y="6748001"/>
+          <a:ext cx="576384" cy="342954"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>573130</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>30027</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504745</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>14776</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6828694" y="6738232"/>
+          <a:ext cx="576384" cy="342954"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>801077</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>109704</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>582897</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95681</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6164385" y="6817909"/>
+          <a:ext cx="674076" cy="165080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4839,8 +4921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -4876,8 +4958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F112" sqref="F112"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K117" sqref="K117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -4902,79 +4984,79 @@
       </c>
       <c r="G1" s="5">
         <f t="array" ref="G1:AE2">TRANSPOSE(E2:F26)</f>
-        <v>-7.8800000000000008</v>
+        <v>-1.749959253653067</v>
       </c>
       <c r="H1" s="5">
-        <v>-6.8800000000000008</v>
+        <v>-1.527883206235165</v>
       </c>
       <c r="I1" s="5">
-        <v>-4.8800000000000008</v>
+        <v>-1.0837311113993613</v>
       </c>
       <c r="J1" s="5">
-        <v>-4.8800000000000008</v>
+        <v>-1.0837311113993613</v>
       </c>
       <c r="K1">
-        <v>-4.8800000000000008</v>
+        <v>-1.0837311113993613</v>
       </c>
       <c r="L1">
-        <v>-3.8800000000000008</v>
+        <v>-0.86165506398145941</v>
       </c>
       <c r="M1">
-        <v>-3.8800000000000008</v>
+        <v>-0.86165506398145941</v>
       </c>
       <c r="N1">
-        <v>-2.8800000000000008</v>
+        <v>-0.63957901656355753</v>
       </c>
       <c r="O1">
-        <v>-1.8800000000000008</v>
+        <v>-0.41750296914565571</v>
       </c>
       <c r="P1">
-        <v>-1.8800000000000008</v>
+        <v>-0.41750296914565571</v>
       </c>
       <c r="Q1">
-        <v>-1.8800000000000008</v>
+        <v>-0.41750296914565571</v>
       </c>
       <c r="R1">
-        <v>-0.88000000000000078</v>
+        <v>-0.19542692172775383</v>
       </c>
       <c r="S1">
-        <v>0.11999999999999922</v>
+        <v>2.6649125690148052E-2</v>
       </c>
       <c r="T1">
-        <v>1.1199999999999992</v>
+        <v>0.24872517310804992</v>
       </c>
       <c r="U1" s="5">
-        <v>1.1199999999999992</v>
+        <v>0.24872517310804992</v>
       </c>
       <c r="V1" s="5">
-        <v>2.1199999999999992</v>
+        <v>0.4708012205259518</v>
       </c>
       <c r="W1">
-        <v>2.1199999999999992</v>
+        <v>0.4708012205259518</v>
       </c>
       <c r="X1">
-        <v>2.1199999999999992</v>
+        <v>0.4708012205259518</v>
       </c>
       <c r="Y1">
-        <v>2.1199999999999992</v>
+        <v>0.4708012205259518</v>
       </c>
       <c r="Z1">
-        <v>3.1199999999999992</v>
+        <v>0.69287726794385363</v>
       </c>
       <c r="AA1">
-        <v>4.1199999999999992</v>
+        <v>0.9149533153617555</v>
       </c>
       <c r="AB1">
-        <v>6.1199999999999992</v>
+        <v>1.3591054101975593</v>
       </c>
       <c r="AC1">
-        <v>6.1199999999999992</v>
+        <v>1.3591054101975593</v>
       </c>
       <c r="AD1">
-        <v>7.1199999999999992</v>
+        <v>1.5811814576154612</v>
       </c>
       <c r="AE1">
-        <v>9.1199999999999992</v>
+        <v>2.025333552451265</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="14.35">
@@ -4987,87 +5069,87 @@
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
       <c r="E2">
-        <f>(A2-A$27)</f>
-        <v>-7.8800000000000008</v>
+        <f>(A2-A$27)/A$28</f>
+        <v>-1.749959253653067</v>
       </c>
       <c r="F2">
-        <f>(B2-B$27)</f>
-        <v>-8.68</v>
+        <f>(B2-B$27)/B$28</f>
+        <v>-1.7695869776555053</v>
       </c>
       <c r="G2">
-        <v>-8.68</v>
+        <v>-1.7695869776555053</v>
       </c>
       <c r="H2">
-        <v>-0.67999999999999972</v>
+        <v>-0.138631237880846</v>
       </c>
       <c r="I2">
-        <v>-5.68</v>
+        <v>-1.157978575240008</v>
       </c>
       <c r="J2">
-        <v>-2.6799999999999997</v>
+        <v>-0.54637017282451084</v>
       </c>
       <c r="K2">
-        <v>-0.67999999999999972</v>
+        <v>-0.138631237880846</v>
       </c>
       <c r="L2">
-        <v>-8.68</v>
+        <v>-1.7695869776555053</v>
       </c>
       <c r="M2">
-        <v>2.3200000000000003</v>
+        <v>0.47297716453465127</v>
       </c>
       <c r="N2">
-        <v>-1.6799999999999997</v>
+        <v>-0.3425007053526784</v>
       </c>
       <c r="O2">
-        <v>-5.68</v>
+        <v>-1.157978575240008</v>
       </c>
       <c r="P2">
-        <v>-2.6799999999999997</v>
+        <v>-0.54637017282451084</v>
       </c>
       <c r="Q2" s="19">
-        <v>3.3200000000000003</v>
+        <v>0.67684663200648376</v>
       </c>
       <c r="R2">
-        <v>-3.6799999999999997</v>
+        <v>-0.75023964029634327</v>
       </c>
       <c r="S2">
-        <v>1.3200000000000003</v>
+        <v>0.26910769706281884</v>
       </c>
       <c r="T2">
-        <v>-0.67999999999999972</v>
+        <v>-0.138631237880846</v>
       </c>
       <c r="U2">
-        <v>0.32000000000000028</v>
+        <v>6.5238229590986435E-2</v>
       </c>
       <c r="V2">
-        <v>-4.68</v>
+        <v>-0.9541091077681757</v>
       </c>
       <c r="W2">
-        <v>3.3200000000000003</v>
+        <v>0.67684663200648376</v>
       </c>
       <c r="X2">
-        <v>4.32</v>
+        <v>0.88071609947831619</v>
       </c>
       <c r="Y2">
-        <v>6.32</v>
+        <v>1.2884550344219809</v>
       </c>
       <c r="Z2">
-        <v>-3.6799999999999997</v>
+        <v>-0.75023964029634327</v>
       </c>
       <c r="AA2">
-        <v>2.3200000000000003</v>
+        <v>0.47297716453465127</v>
       </c>
       <c r="AB2">
-        <v>2.3200000000000003</v>
+        <v>0.47297716453465127</v>
       </c>
       <c r="AC2">
-        <v>6.32</v>
+        <v>1.2884550344219809</v>
       </c>
       <c r="AD2">
-        <v>8.32</v>
+        <v>1.6961939693656458</v>
       </c>
       <c r="AE2">
-        <v>9.32</v>
+        <v>1.9000634368374782</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="14.35">
@@ -5080,12 +5162,12 @@
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3">
-        <f t="shared" ref="E3:E26" si="0">(A3-A$27)</f>
-        <v>-6.8800000000000008</v>
+        <f t="shared" ref="E3:F26" si="0">(A3-A$27)/A$28</f>
+        <v>-1.527883206235165</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F26" si="1">(B3-B$27)</f>
-        <v>-0.67999999999999972</v>
+        <f t="shared" si="0"/>
+        <v>-0.138631237880846</v>
       </c>
       <c r="G3" s="31" t="s">
         <v>98</v>
@@ -5105,11 +5187,11 @@
       <c r="D4" s="18"/>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>-4.8800000000000008</v>
+        <v>-1.0837311113993613</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
-        <v>-5.68</v>
+        <f t="shared" si="0"/>
+        <v>-1.157978575240008</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="14.35">
@@ -5123,11 +5205,11 @@
       <c r="D5" s="18"/>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>-4.8800000000000008</v>
+        <v>-1.0837311113993613</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
-        <v>-2.6799999999999997</v>
+        <f t="shared" si="0"/>
+        <v>-0.54637017282451084</v>
       </c>
       <c r="V5" t="s">
         <v>62</v>
@@ -5144,14 +5226,14 @@
       <c r="D6" s="18"/>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>-4.8800000000000008</v>
+        <v>-1.0837311113993613</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
-        <v>-0.67999999999999972</v>
+        <f t="shared" si="0"/>
+        <v>-0.138631237880846</v>
       </c>
       <c r="V6" s="16" t="s">
-        <v>158</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="14.35">
@@ -5162,17 +5244,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
+      <c r="D7" s="18" t="s">
+        <v>159</v>
+      </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>-3.8800000000000008</v>
+        <v>-0.86165506398145941</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
-        <v>-8.68</v>
+        <f t="shared" si="0"/>
+        <v>-1.7695869776555053</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>159</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="14.35">
@@ -5183,14 +5267,16 @@
         <v>13</v>
       </c>
       <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="D8" s="18" t="s">
+        <v>160</v>
+      </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>-3.8800000000000008</v>
+        <v>-0.86165506398145941</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
-        <v>2.3200000000000003</v>
+        <f t="shared" si="0"/>
+        <v>0.47297716453465127</v>
       </c>
       <c r="V8" t="s">
         <v>59</v>
@@ -5207,11 +5293,11 @@
       <c r="D9" s="18"/>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>-2.8800000000000008</v>
+        <v>-0.63957901656355753</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
-        <v>-1.6799999999999997</v>
+        <f t="shared" si="0"/>
+        <v>-0.3425007053526784</v>
       </c>
       <c r="V9" t="s">
         <v>60</v>
@@ -5228,11 +5314,11 @@
       <c r="D10" s="18"/>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>-1.8800000000000008</v>
+        <v>-0.41750296914565571</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
-        <v>-5.68</v>
+        <f t="shared" si="0"/>
+        <v>-1.157978575240008</v>
       </c>
       <c r="V10" t="s">
         <v>61</v>
@@ -5249,11 +5335,11 @@
       <c r="D11" s="18"/>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>-1.8800000000000008</v>
+        <v>-0.41750296914565571</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
-        <v>-2.6799999999999997</v>
+        <f t="shared" si="0"/>
+        <v>-0.54637017282451084</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="14.35">
@@ -5267,11 +5353,11 @@
       <c r="D12" s="18"/>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>-1.8800000000000008</v>
+        <v>-0.41750296914565571</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
-        <v>3.3200000000000003</v>
+        <f t="shared" si="0"/>
+        <v>0.67684663200648376</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="14.35">
@@ -5285,11 +5371,11 @@
       <c r="D13" s="18"/>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>-0.88000000000000078</v>
+        <v>-0.19542692172775383</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
-        <v>-3.6799999999999997</v>
+        <f t="shared" si="0"/>
+        <v>-0.75023964029634327</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="14.35">
@@ -5303,11 +5389,11 @@
       <c r="D14" s="18"/>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0.11999999999999922</v>
+        <v>2.6649125690148052E-2</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
-        <v>1.3200000000000003</v>
+        <f t="shared" si="0"/>
+        <v>0.26910769706281884</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="14.35">
@@ -5321,11 +5407,11 @@
       <c r="D15" s="18"/>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>1.1199999999999992</v>
+        <v>0.24872517310804992</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
-        <v>-0.67999999999999972</v>
+        <f t="shared" si="0"/>
+        <v>-0.138631237880846</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="14.35">
@@ -5339,11 +5425,11 @@
       <c r="D16" s="18"/>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>1.1199999999999992</v>
+        <v>0.24872517310804992</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
-        <v>0.32000000000000028</v>
+        <f t="shared" si="0"/>
+        <v>6.5238229590986435E-2</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="14.35">
@@ -5357,11 +5443,11 @@
       <c r="D17" s="18"/>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>2.1199999999999992</v>
+        <v>0.4708012205259518</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
-        <v>-4.68</v>
+        <f t="shared" si="0"/>
+        <v>-0.9541091077681757</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.35">
@@ -5375,11 +5461,11 @@
       <c r="D18" s="18"/>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>2.1199999999999992</v>
+        <v>0.4708012205259518</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
-        <v>3.3200000000000003</v>
+        <f t="shared" si="0"/>
+        <v>0.67684663200648376</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="14.35">
@@ -5393,11 +5479,11 @@
       <c r="D19" s="18"/>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>2.1199999999999992</v>
+        <v>0.4708012205259518</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
-        <v>4.32</v>
+        <f t="shared" si="0"/>
+        <v>0.88071609947831619</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.35">
@@ -5411,11 +5497,11 @@
       <c r="D20" s="18"/>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>2.1199999999999992</v>
+        <v>0.4708012205259518</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
-        <v>6.32</v>
+        <f t="shared" si="0"/>
+        <v>1.2884550344219809</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="14.35">
@@ -5429,11 +5515,11 @@
       <c r="D21" s="18"/>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>3.1199999999999992</v>
+        <v>0.69287726794385363</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
-        <v>-3.6799999999999997</v>
+        <f t="shared" si="0"/>
+        <v>-0.75023964029634327</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="14.35">
@@ -5447,11 +5533,11 @@
       <c r="D22" s="18"/>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>4.1199999999999992</v>
+        <v>0.9149533153617555</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
-        <v>2.3200000000000003</v>
+        <f t="shared" si="0"/>
+        <v>0.47297716453465127</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="14.35">
@@ -5465,11 +5551,11 @@
       <c r="D23" s="18"/>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>6.1199999999999992</v>
+        <v>1.3591054101975593</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
-        <v>2.3200000000000003</v>
+        <f t="shared" si="0"/>
+        <v>0.47297716453465127</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="14.35">
@@ -5483,11 +5569,11 @@
       <c r="D24" s="18"/>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>6.1199999999999992</v>
+        <v>1.3591054101975593</v>
       </c>
       <c r="F24">
-        <f t="shared" si="1"/>
-        <v>6.32</v>
+        <f t="shared" si="0"/>
+        <v>1.2884550344219809</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="14.35">
@@ -5501,11 +5587,11 @@
       <c r="D25" s="18"/>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>7.1199999999999992</v>
+        <v>1.5811814576154612</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
-        <v>8.32</v>
+        <f t="shared" si="0"/>
+        <v>1.6961939693656458</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="14.35">
@@ -5519,11 +5605,11 @@
       <c r="D26" s="18"/>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>9.1199999999999992</v>
+        <v>2.025333552451265</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
-        <v>9.32</v>
+        <f t="shared" si="0"/>
+        <v>1.9000634368374782</v>
       </c>
       <c r="K26" s="30" t="s">
         <v>97</v>
@@ -5629,21 +5715,21 @@
     <row r="36" spans="1:12">
       <c r="A36" s="3">
         <f t="array" ref="A36:B37">MMULT(G1:AE2,E2:F26)/24</f>
-        <v>20.276666666666667</v>
+        <v>1.0000000000000007</v>
       </c>
       <c r="B36" s="22">
-        <v>15.585000000000003</v>
+        <v>0.70560348031237818</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="3">
-        <v>15.585000000000003</v>
+        <v>0.70560348031237818</v>
       </c>
       <c r="B37" s="22">
-        <v>24.060000000000002</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>91</v>
@@ -5653,12 +5739,13 @@
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="D38" s="30" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E38">
-        <f>MDETERM(A36:B37)</f>
+        <f>MDETERM( A32:B33)</f>
         <v>244.96437499999996</v>
       </c>
+      <c r="I38" s="27"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="32" t="s">
@@ -5668,9 +5755,10 @@
         <v>73</v>
       </c>
       <c r="E39">
-        <f>A36+B37</f>
+        <f>A32+B33</f>
         <v>44.336666666666673</v>
       </c>
+      <c r="I39" s="25"/>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="25" t="s">
@@ -5970,10 +6058,10 @@
       </c>
       <c r="E88" s="44">
         <f t="array" ref="E88:F112">MMULT(E2:F26,A80:B81)</f>
-        <v>-11.709688296449226</v>
+        <v>-2.4886950068578484</v>
       </c>
       <c r="F88" s="44">
-        <v>-0.5656854249492369</v>
+        <v>-1.3878896741382096E-2</v>
       </c>
       <c r="G88" s="3">
         <f>C88/A$114</f>
@@ -5998,25 +6086,25 @@
         <v>-3.6373882125691868</v>
       </c>
       <c r="C89" s="3">
-        <f t="shared" ref="C89:D112" si="2">A89-A$113</f>
+        <f t="shared" ref="C89:D112" si="1">A89-A$113</f>
         <v>-5.0723976131252577</v>
       </c>
       <c r="D89" s="3">
+        <f t="shared" si="1"/>
+        <v>-4.6987281771637406</v>
+      </c>
+      <c r="E89" s="44">
+        <v>-1.1784036643797609</v>
+      </c>
+      <c r="F89" s="44">
+        <v>0.98234948760009777</v>
+      </c>
+      <c r="G89" s="3">
+        <f t="shared" ref="G89:H112" si="2">C89/A$114</f>
+        <v>-0.82428754985661912</v>
+      </c>
+      <c r="H89" s="3">
         <f t="shared" si="2"/>
-        <v>-4.6987281771637406</v>
-      </c>
-      <c r="E89" s="44">
-        <v>-5.3457272657702992</v>
-      </c>
-      <c r="F89" s="44">
-        <v>4.3840620433565958</v>
-      </c>
-      <c r="G89" s="3">
-        <f t="shared" ref="G89:H112" si="3">C89/A$114</f>
-        <v>-0.82428754985661912</v>
-      </c>
-      <c r="H89" s="3">
-        <f t="shared" si="3"/>
         <v>-1.8474105293992473</v>
       </c>
     </row>
@@ -6028,25 +6116,25 @@
         <v>1.1752953462689453</v>
       </c>
       <c r="C90" s="3">
+        <f t="shared" si="1"/>
+        <v>-7.4875521216518752</v>
+      </c>
+      <c r="D90" s="3">
+        <f t="shared" si="1"/>
+        <v>0.11395538167439101</v>
+      </c>
+      <c r="E90" s="44">
+        <v>-1.5851281208742685</v>
+      </c>
+      <c r="F90" s="44">
+        <v>-5.25008851676243E-2</v>
+      </c>
+      <c r="G90" s="3">
         <f t="shared" si="2"/>
-        <v>-7.4875521216518752</v>
-      </c>
-      <c r="D90" s="3">
+        <v>-1.2167610789836056</v>
+      </c>
+      <c r="H90" s="3">
         <f t="shared" si="2"/>
-        <v>0.11395538167439101</v>
-      </c>
-      <c r="E90" s="44">
-        <v>-7.467047609329942</v>
-      </c>
-      <c r="F90" s="44">
-        <v>-0.56568542494923735</v>
-      </c>
-      <c r="G90" s="3">
-        <f t="shared" si="3"/>
-        <v>-1.2167610789836056</v>
-      </c>
-      <c r="H90" s="3">
-        <f t="shared" si="3"/>
         <v>4.4804118061167797E-2</v>
       </c>
     </row>
@@ -6058,25 +6146,25 @@
         <v>-0.81411795326787217</v>
       </c>
       <c r="C91" s="3">
+        <f t="shared" si="1"/>
+        <v>-5.2424968997631449</v>
+      </c>
+      <c r="D91" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.8754579178624264</v>
+      </c>
+      <c r="E91" s="44">
+        <v>-1.1526556720955996</v>
+      </c>
+      <c r="F91" s="44">
+        <v>0.37997156361104456</v>
+      </c>
+      <c r="G91" s="3">
         <f t="shared" si="2"/>
-        <v>-5.2424968997631449</v>
-      </c>
-      <c r="D91" s="3">
+        <v>-0.85192945313571056</v>
+      </c>
+      <c r="H91" s="3">
         <f t="shared" si="2"/>
-        <v>-1.8754579178624264</v>
-      </c>
-      <c r="E91" s="44">
-        <v>-5.3457272657702992</v>
-      </c>
-      <c r="F91" s="44">
-        <v>1.555634918610405</v>
-      </c>
-      <c r="G91" s="3">
-        <f t="shared" si="3"/>
-        <v>-0.85192945313571056</v>
-      </c>
-      <c r="H91" s="3">
-        <f t="shared" si="3"/>
         <v>-0.73737840842617797</v>
       </c>
     </row>
@@ -6088,25 +6176,25 @@
         <v>-2.1403934862924174</v>
       </c>
       <c r="C92" s="3">
+        <f t="shared" si="1"/>
+        <v>-3.7457934185039932</v>
+      </c>
+      <c r="D92" s="3">
+        <f t="shared" si="1"/>
+        <v>-3.2017334508869717</v>
+      </c>
+      <c r="E92" s="44">
+        <v>-0.86434070624315362</v>
+      </c>
+      <c r="F92" s="44">
+        <v>0.66828652946349054</v>
+      </c>
+      <c r="G92" s="3">
         <f t="shared" si="2"/>
-        <v>-3.7457934185039932</v>
-      </c>
-      <c r="D92" s="3">
+        <v>-0.60870836923711413</v>
+      </c>
+      <c r="H92" s="3">
         <f t="shared" si="2"/>
-        <v>-3.2017334508869717</v>
-      </c>
-      <c r="E92" s="44">
-        <v>-3.9315137033972043</v>
-      </c>
-      <c r="F92" s="44">
-        <v>2.9698484809835</v>
-      </c>
-      <c r="G92" s="3">
-        <f t="shared" si="3"/>
-        <v>-0.60870836923711413</v>
-      </c>
-      <c r="H92" s="3">
-        <f t="shared" si="3"/>
         <v>-1.2588334260844085</v>
       </c>
     </row>
@@ -6118,25 +6206,25 @@
         <v>3.9132060089441474</v>
       </c>
       <c r="C93" s="3">
+        <f t="shared" si="1"/>
+        <v>-9.0693052462299715</v>
+      </c>
+      <c r="D93" s="3">
+        <f t="shared" si="1"/>
+        <v>2.8518660443495931</v>
+      </c>
+      <c r="E93" s="44">
+        <v>-1.8605690905846335</v>
+      </c>
+      <c r="F93" s="44">
+        <v>-0.64200481301459689</v>
+      </c>
+      <c r="G93" s="3">
         <f t="shared" si="2"/>
-        <v>-9.0693052462299715</v>
-      </c>
-      <c r="D93" s="3">
+        <v>-1.4738031145217478</v>
+      </c>
+      <c r="H93" s="3">
         <f t="shared" si="2"/>
-        <v>2.8518660443495931</v>
-      </c>
-      <c r="E93" s="44">
-        <v>-8.8812611717030361</v>
-      </c>
-      <c r="F93" s="44">
-        <v>-3.3941125496954268</v>
-      </c>
-      <c r="G93" s="3">
-        <f t="shared" si="3"/>
-        <v>-1.4738031145217478</v>
-      </c>
-      <c r="H93" s="3">
-        <f t="shared" si="3"/>
         <v>1.1212751962059331</v>
       </c>
     </row>
@@ -6148,25 +6236,25 @@
         <v>-3.3813094226908502</v>
       </c>
       <c r="C94" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.83743609930463059</v>
+      </c>
+      <c r="D94" s="3">
+        <f t="shared" si="1"/>
+        <v>-4.4426493872854049</v>
+      </c>
+      <c r="E94" s="44">
+        <v>-0.27483677839618104</v>
+      </c>
+      <c r="F94" s="44">
+        <v>0.94372749917385568</v>
+      </c>
+      <c r="G94" s="3">
         <f t="shared" si="2"/>
-        <v>-0.83743609930463059</v>
-      </c>
-      <c r="D94" s="3">
+        <v>-0.13608715307946667</v>
+      </c>
+      <c r="H94" s="3">
         <f t="shared" si="2"/>
-        <v>-4.4426493872854049</v>
-      </c>
-      <c r="E94" s="44">
-        <v>-1.1030865786510144</v>
-      </c>
-      <c r="F94" s="44">
-        <v>4.3840620433565949</v>
-      </c>
-      <c r="G94" s="3">
-        <f t="shared" si="3"/>
-        <v>-0.13608715307946667</v>
-      </c>
-      <c r="H94" s="3">
-        <f t="shared" si="3"/>
         <v>-1.746727400914335</v>
       </c>
     </row>
@@ -6178,25 +6266,25 @@
         <v>1.9739006496624967E-2</v>
       </c>
       <c r="C95" s="3">
+        <f t="shared" si="1"/>
+        <v>-3.1675409645123036</v>
+      </c>
+      <c r="D95" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.0416009580979293</v>
+      </c>
+      <c r="E95" s="44">
+        <v>-0.69443523103276927</v>
+      </c>
+      <c r="F95" s="44">
+        <v>0.21006608840066016</v>
+      </c>
+      <c r="G95" s="3">
         <f t="shared" si="2"/>
-        <v>-3.1675409645123036</v>
-      </c>
-      <c r="D95" s="3">
+        <v>-0.51473973056690725</v>
+      </c>
+      <c r="H95" s="3">
         <f t="shared" si="2"/>
-        <v>-1.0416009580979293</v>
-      </c>
-      <c r="E95" s="44">
-        <v>-3.2244069222106568</v>
-      </c>
-      <c r="F95" s="44">
-        <v>0.84852813742385758</v>
-      </c>
-      <c r="G95" s="3">
-        <f t="shared" si="3"/>
-        <v>-0.51473973056690725</v>
-      </c>
-      <c r="H95" s="3">
-        <f t="shared" si="3"/>
         <v>-0.40952881394045415</v>
       </c>
     </row>
@@ -6208,25 +6296,25 @@
         <v>3.4207874356840993</v>
       </c>
       <c r="C96" s="3">
+        <f t="shared" si="1"/>
+        <v>-5.4976458297199784</v>
+      </c>
+      <c r="D96" s="3">
+        <f t="shared" si="1"/>
+        <v>2.359447471089545</v>
+      </c>
+      <c r="E96" s="44">
+        <v>-1.1140336836693574</v>
+      </c>
+      <c r="F96" s="44">
+        <v>-0.52359532237253537</v>
+      </c>
+      <c r="G96" s="3">
         <f t="shared" si="2"/>
-        <v>-5.4976458297199784</v>
-      </c>
-      <c r="D96" s="3">
+        <v>-0.89339230805434822</v>
+      </c>
+      <c r="H96" s="3">
         <f t="shared" si="2"/>
-        <v>2.359447471089545</v>
-      </c>
-      <c r="E96" s="44">
-        <v>-5.3457272657702992</v>
-      </c>
-      <c r="F96" s="44">
-        <v>-2.6870057685088797</v>
-      </c>
-      <c r="G96" s="3">
-        <f t="shared" si="3"/>
-        <v>-0.89339230805434822</v>
-      </c>
-      <c r="H96" s="3">
-        <f t="shared" si="3"/>
         <v>0.92766977303342613</v>
       </c>
     </row>
@@ -6238,25 +6326,25 @@
         <v>1.4313741361472818</v>
       </c>
       <c r="C97" s="3">
+        <f t="shared" si="1"/>
+        <v>-3.2525906078312499</v>
+      </c>
+      <c r="D97" s="3">
+        <f t="shared" si="1"/>
+        <v>0.37003417155272755</v>
+      </c>
+      <c r="E97" s="44">
+        <v>-0.68156123489068854</v>
+      </c>
+      <c r="F97" s="44">
+        <v>-9.1122873593866449E-2</v>
+      </c>
+      <c r="G97" s="3">
         <f t="shared" si="2"/>
-        <v>-3.2525906078312499</v>
-      </c>
-      <c r="D97" s="3">
+        <v>-0.52856068220645347</v>
+      </c>
+      <c r="H97" s="3">
         <f t="shared" si="2"/>
-        <v>0.37003417155272755</v>
-      </c>
-      <c r="E97" s="44">
-        <v>-3.2244069222106568</v>
-      </c>
-      <c r="F97" s="44">
-        <v>-0.56568542494923735</v>
-      </c>
-      <c r="G97" s="3">
-        <f t="shared" si="3"/>
-        <v>-0.52856068220645347</v>
-      </c>
-      <c r="H97" s="3">
-        <f t="shared" si="3"/>
         <v>0.14548724654608045</v>
       </c>
     </row>
@@ -6268,25 +6356,25 @@
         <v>-2.547452462926354</v>
       </c>
       <c r="C98" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2375198359462072</v>
+      </c>
+      <c r="D98" s="3">
+        <f t="shared" si="1"/>
+        <v>-3.6087924275209082</v>
+      </c>
+      <c r="E98" s="44">
+        <v>0.18338366266664924</v>
+      </c>
+      <c r="F98" s="44">
+        <v>0.77382202396347144</v>
+      </c>
+      <c r="G98" s="3">
         <f t="shared" si="2"/>
-        <v>1.2375198359462072</v>
-      </c>
-      <c r="D98" s="3">
+        <v>0.20110256948933602</v>
+      </c>
+      <c r="H98" s="3">
         <f t="shared" si="2"/>
-        <v>-3.6087924275209082</v>
-      </c>
-      <c r="E98" s="44">
-        <v>1.0182337649086279</v>
-      </c>
-      <c r="F98" s="44">
-        <v>3.6769552621700474</v>
-      </c>
-      <c r="G98" s="3">
-        <f t="shared" si="3"/>
-        <v>0.20110256948933602</v>
-      </c>
-      <c r="H98" s="3">
-        <f t="shared" si="3"/>
         <v>-1.4188778064286114</v>
       </c>
     </row>
@@ -6298,25 +6386,25 @@
         <v>2.8430092657979387</v>
       </c>
       <c r="C99" s="3">
+        <f t="shared" si="1"/>
+        <v>-3.3376402511501926</v>
+      </c>
+      <c r="D99" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7816693012033844</v>
+      </c>
+      <c r="E99" s="44">
+        <v>-0.66868723874860792</v>
+      </c>
+      <c r="F99" s="44">
+        <v>-0.39231183558839311</v>
+      </c>
+      <c r="G99" s="3">
         <f t="shared" si="2"/>
-        <v>-3.3376402511501926</v>
-      </c>
-      <c r="D99" s="3">
+        <v>-0.54238163384599902</v>
+      </c>
+      <c r="H99" s="3">
         <f t="shared" si="2"/>
-        <v>1.7816693012033844</v>
-      </c>
-      <c r="E99" s="44">
-        <v>-3.2244069222106568</v>
-      </c>
-      <c r="F99" s="44">
-        <v>-1.9798989873223323</v>
-      </c>
-      <c r="G99" s="3">
-        <f t="shared" si="3"/>
-        <v>-0.54238163384599902</v>
-      </c>
-      <c r="H99" s="3">
-        <f t="shared" si="3"/>
         <v>0.70050330703261499</v>
       </c>
     </row>
@@ -6328,25 +6416,25 @@
         <v>0.2758177963749624</v>
       </c>
       <c r="C100" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0674205493083218</v>
+      </c>
+      <c r="D100" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.78552216821959187</v>
+      </c>
+      <c r="E100" s="44">
+        <v>0.20913165495081065</v>
+      </c>
+      <c r="F100" s="44">
+        <v>0.17144409997441801</v>
+      </c>
+      <c r="G100" s="3">
         <f t="shared" si="2"/>
-        <v>1.0674205493083218</v>
-      </c>
-      <c r="D100" s="3">
+        <v>0.17346066621024486</v>
+      </c>
+      <c r="H100" s="3">
         <f t="shared" si="2"/>
-        <v>-0.78552216821959187</v>
-      </c>
-      <c r="E100" s="44">
-        <v>1.0182337649086279</v>
-      </c>
-      <c r="F100" s="44">
-        <v>0.84852813742385769</v>
-      </c>
-      <c r="G100" s="3">
-        <f t="shared" si="3"/>
-        <v>0.17346066621024486</v>
-      </c>
-      <c r="H100" s="3">
-        <f t="shared" si="3"/>
         <v>-0.30884568545554114</v>
       </c>
     </row>
@@ -6358,25 +6446,25 @@
         <v>2.3505906925378905</v>
       </c>
       <c r="C101" s="3">
+        <f t="shared" si="1"/>
+        <v>0.23401916535979872</v>
+      </c>
+      <c r="D101" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2892507279433363</v>
+      </c>
+      <c r="E101" s="44">
+        <v>7.7848168166668411E-2</v>
+      </c>
+      <c r="F101" s="44">
+        <v>-0.27390234494633159</v>
+      </c>
+      <c r="G101" s="3">
         <f t="shared" si="2"/>
-        <v>0.23401916535979872</v>
-      </c>
-      <c r="D101" s="3">
+        <v>3.8029172621400341E-2</v>
+      </c>
+      <c r="H101" s="3">
         <f t="shared" si="2"/>
-        <v>1.2892507279433363</v>
-      </c>
-      <c r="E101" s="44">
-        <v>0.31112698372208059</v>
-      </c>
-      <c r="F101" s="44">
-        <v>-1.2727922061357848</v>
-      </c>
-      <c r="G101" s="3">
-        <f t="shared" si="3"/>
-        <v>3.8029172621400341E-2</v>
-      </c>
-      <c r="H101" s="3">
-        <f t="shared" si="3"/>
         <v>0.50689788386010826</v>
       </c>
     </row>
@@ -6388,25 +6476,25 @@
         <v>1.6874529260256184</v>
       </c>
       <c r="C102" s="3">
+        <f t="shared" si="1"/>
+        <v>0.98237090598937549</v>
+      </c>
+      <c r="D102" s="3">
+        <f t="shared" si="1"/>
+        <v>0.6261129614310641</v>
+      </c>
+      <c r="E102" s="44">
+        <v>0.22200565109289139</v>
+      </c>
+      <c r="F102" s="44">
+        <v>-0.1297448620201086</v>
+      </c>
+      <c r="G102" s="3">
         <f t="shared" si="2"/>
-        <v>0.98237090598937549</v>
-      </c>
-      <c r="D102" s="3">
+        <v>0.1596397145706987</v>
+      </c>
+      <c r="H102" s="3">
         <f t="shared" si="2"/>
-        <v>0.6261129614310641</v>
-      </c>
-      <c r="E102" s="44">
-        <v>1.0182337649086279</v>
-      </c>
-      <c r="F102" s="44">
-        <v>-0.56568542494923724</v>
-      </c>
-      <c r="G102" s="3">
-        <f t="shared" si="3"/>
-        <v>0.1596397145706987</v>
-      </c>
-      <c r="H102" s="3">
-        <f t="shared" si="3"/>
         <v>0.24617037503099309</v>
       </c>
     </row>
@@ -6418,25 +6506,25 @@
         <v>5.7516391217253648</v>
       </c>
       <c r="C103" s="3">
+        <f t="shared" si="1"/>
+        <v>-2.0960856998478743</v>
+      </c>
+      <c r="D103" s="3">
+        <f t="shared" si="1"/>
+        <v>4.690299157130811</v>
+      </c>
+      <c r="E103" s="44">
+        <v>-0.34175028446991973</v>
+      </c>
+      <c r="F103" s="44">
+        <v>-1.0075637557195272</v>
+      </c>
+      <c r="G103" s="3">
         <f t="shared" si="2"/>
-        <v>-2.0960856998478743</v>
-      </c>
-      <c r="D103" s="3">
+        <v>-0.34062340486604031</v>
+      </c>
+      <c r="H103" s="3">
         <f t="shared" si="2"/>
-        <v>4.690299157130811</v>
-      </c>
-      <c r="E103" s="44">
-        <v>-1.8101933598375619</v>
-      </c>
-      <c r="F103" s="44">
-        <v>-4.8083261120685226</v>
-      </c>
-      <c r="G103" s="3">
-        <f t="shared" si="3"/>
-        <v>-0.34062340486604031</v>
-      </c>
-      <c r="H103" s="3">
-        <f t="shared" si="3"/>
         <v>1.8440964708339886</v>
       </c>
     </row>
@@ -6448,25 +6536,25 @@
         <v>0.4465369896271838</v>
       </c>
       <c r="C104" s="3">
+        <f t="shared" si="1"/>
+        <v>3.8907282251887363</v>
+      </c>
+      <c r="D104" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.61480297496737046</v>
+      </c>
+      <c r="E104" s="44">
+        <v>0.81150957893986397</v>
+      </c>
+      <c r="F104" s="44">
+        <v>0.14569610769025665</v>
+      </c>
+      <c r="G104" s="3">
         <f t="shared" si="2"/>
-        <v>3.8907282251887363</v>
-      </c>
-      <c r="D104" s="3">
+        <v>0.63226093072834588</v>
+      </c>
+      <c r="H104" s="3">
         <f t="shared" si="2"/>
-        <v>-0.61480297496737046</v>
-      </c>
-      <c r="E104" s="44">
-        <v>3.8466608896548178</v>
-      </c>
-      <c r="F104" s="44">
-        <v>0.84852813742385758</v>
-      </c>
-      <c r="G104" s="3">
-        <f t="shared" si="3"/>
-        <v>0.63226093072834588</v>
-      </c>
-      <c r="H104" s="3">
-        <f t="shared" si="3"/>
         <v>-0.24172359979893387</v>
       </c>
     </row>
@@ -6478,25 +6566,25 @@
         <v>-0.2166007768850875</v>
       </c>
       <c r="C105" s="3">
+        <f t="shared" si="1"/>
+        <v>4.6390799658183131</v>
+      </c>
+      <c r="D105" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.2779407414796418</v>
+      </c>
+      <c r="E105" s="44">
+        <v>0.95566706186608696</v>
+      </c>
+      <c r="F105" s="44">
+        <v>0.28985359061647964</v>
+      </c>
+      <c r="G105" s="3">
         <f t="shared" si="2"/>
-        <v>4.6390799658183131</v>
-      </c>
-      <c r="D105" s="3">
+        <v>0.75387147267764421</v>
+      </c>
+      <c r="H105" s="3">
         <f t="shared" si="2"/>
-        <v>-1.2779407414796418</v>
-      </c>
-      <c r="E105" s="44">
-        <v>4.5537676708413652</v>
-      </c>
-      <c r="F105" s="44">
-        <v>1.555634918610405</v>
-      </c>
-      <c r="G105" s="3">
-        <f t="shared" si="3"/>
-        <v>0.75387147267764421</v>
-      </c>
-      <c r="H105" s="3">
-        <f t="shared" si="3"/>
         <v>-0.50245110862804865</v>
       </c>
     </row>
@@ -6508,25 +6596,25 @@
         <v>-1.5428763099096336</v>
       </c>
       <c r="C106" s="3">
+        <f t="shared" si="1"/>
+        <v>6.1357834470774666</v>
+      </c>
+      <c r="D106" s="3">
+        <f t="shared" si="1"/>
+        <v>-2.6042162745041879</v>
+      </c>
+      <c r="E106" s="44">
+        <v>1.2439820277185327</v>
+      </c>
+      <c r="F106" s="44">
+        <v>0.57816855646892551</v>
+      </c>
+      <c r="G106" s="3">
         <f t="shared" si="2"/>
-        <v>6.1357834470774666</v>
-      </c>
-      <c r="D106" s="3">
+        <v>0.99709255657624096</v>
+      </c>
+      <c r="H106" s="3">
         <f t="shared" si="2"/>
-        <v>-2.6042162745041879</v>
-      </c>
-      <c r="E106" s="44">
-        <v>5.9679812332144602</v>
-      </c>
-      <c r="F106" s="44">
-        <v>2.9698484809835</v>
-      </c>
-      <c r="G106" s="3">
-        <f t="shared" si="3"/>
-        <v>0.99709255657624096</v>
-      </c>
-      <c r="H106" s="3">
-        <f t="shared" si="3"/>
         <v>-1.0239061262862796</v>
       </c>
     </row>
@@ -6538,25 +6626,25 @@
         <v>5.8369987183514773</v>
       </c>
       <c r="C107" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.68443186190766525</v>
+      </c>
+      <c r="D107" s="3">
+        <f t="shared" si="1"/>
+        <v>4.7756587537569235</v>
+      </c>
+      <c r="E107" s="44">
+        <v>-4.056132247539318E-2</v>
+      </c>
+      <c r="F107" s="44">
+        <v>-1.0204377518616079</v>
+      </c>
+      <c r="G107" s="3">
         <f t="shared" si="2"/>
-        <v>-0.68443186190766525</v>
-      </c>
-      <c r="D107" s="3">
+        <v>-0.11122327260698947</v>
+      </c>
+      <c r="H107" s="3">
         <f t="shared" si="2"/>
-        <v>4.7756587537569235</v>
-      </c>
-      <c r="E107" s="44">
-        <v>-0.39597979746446699</v>
-      </c>
-      <c r="F107" s="44">
-        <v>-4.8083261120685226</v>
-      </c>
-      <c r="G107" s="3">
-        <f t="shared" si="3"/>
-        <v>-0.11122327260698947</v>
-      </c>
-      <c r="H107" s="3">
-        <f t="shared" si="3"/>
         <v>1.8776575136622931</v>
       </c>
     </row>
@@ -6568,25 +6656,25 @@
         <v>2.606669482416228</v>
       </c>
       <c r="C108" s="3">
+        <f t="shared" si="1"/>
+        <v>4.4689806791804276</v>
+      </c>
+      <c r="D108" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5453295178216737</v>
+      </c>
+      <c r="E108" s="44">
+        <v>0.98141505415024832</v>
+      </c>
+      <c r="F108" s="44">
+        <v>-0.31252433337257368</v>
+      </c>
+      <c r="G108" s="3">
         <f t="shared" si="2"/>
-        <v>4.4689806791804276</v>
-      </c>
-      <c r="D108" s="3">
+        <v>0.7262295693985531</v>
+      </c>
+      <c r="H108" s="3">
         <f t="shared" si="2"/>
-        <v>1.5453295178216737</v>
-      </c>
-      <c r="E108" s="44">
-        <v>4.5537676708413652</v>
-      </c>
-      <c r="F108" s="44">
-        <v>-1.2727922061357848</v>
-      </c>
-      <c r="G108" s="3">
-        <f t="shared" si="3"/>
-        <v>0.7262295693985531</v>
-      </c>
-      <c r="H108" s="3">
-        <f t="shared" si="3"/>
         <v>0.60758101234502127</v>
       </c>
     </row>
@@ -6598,25 +6686,25 @@
         <v>4.1036642086929955</v>
       </c>
       <c r="C109" s="3">
+        <f t="shared" si="1"/>
+        <v>5.7955848738016886</v>
+      </c>
+      <c r="D109" s="3">
+        <f t="shared" si="1"/>
+        <v>3.0423242440984413</v>
+      </c>
+      <c r="E109" s="44">
+        <v>1.2954780122868557</v>
+      </c>
+      <c r="F109" s="44">
+        <v>-0.62658729150918102</v>
+      </c>
+      <c r="G109" s="3">
         <f t="shared" si="2"/>
-        <v>5.7955848738016886</v>
-      </c>
-      <c r="D109" s="3">
+        <v>0.94180875001805742</v>
+      </c>
+      <c r="H109" s="3">
         <f t="shared" si="2"/>
-        <v>3.0423242440984413</v>
-      </c>
-      <c r="E109" s="44">
-        <v>5.9679812332144602</v>
-      </c>
-      <c r="F109" s="44">
-        <v>-2.6870057685088797</v>
-      </c>
-      <c r="G109" s="3">
-        <f t="shared" si="3"/>
-        <v>0.94180875001805742</v>
-      </c>
-      <c r="H109" s="3">
-        <f t="shared" si="3"/>
         <v>1.1961581156598595</v>
       </c>
     </row>
@@ -6628,25 +6716,25 @@
         <v>1.451113142643905</v>
       </c>
       <c r="C110" s="3">
+        <f t="shared" si="1"/>
+        <v>8.7889918363199957</v>
+      </c>
+      <c r="D110" s="3">
+        <f t="shared" si="1"/>
+        <v>0.38977317804935074</v>
+      </c>
+      <c r="E110" s="44">
+        <v>1.8721079439917476</v>
+      </c>
+      <c r="F110" s="44">
+        <v>-4.995735980428917E-2</v>
+      </c>
+      <c r="G110" s="3">
         <f t="shared" si="2"/>
-        <v>8.7889918363199957</v>
-      </c>
-      <c r="D110" s="3">
+        <v>1.4282509178152507</v>
+      </c>
+      <c r="H110" s="3">
         <f t="shared" si="2"/>
-        <v>0.38977317804935074</v>
-      </c>
-      <c r="E110" s="44">
-        <v>8.7964083579606509</v>
-      </c>
-      <c r="F110" s="44">
-        <v>0.14142135623731011</v>
-      </c>
-      <c r="G110" s="3">
-        <f t="shared" si="3"/>
-        <v>1.4282509178152507</v>
-      </c>
-      <c r="H110" s="3">
-        <f t="shared" si="3"/>
         <v>0.15324808034339826</v>
       </c>
     </row>
@@ -6658,25 +6746,25 @@
         <v>0.87333497275774619</v>
       </c>
       <c r="C111" s="3">
+        <f t="shared" si="1"/>
+        <v>10.94899741488978</v>
+      </c>
+      <c r="D111" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.18800499183680808</v>
+      </c>
+      <c r="E111" s="44">
+        <v>2.3174543889124974</v>
+      </c>
+      <c r="F111" s="44">
+        <v>8.1326126979852864E-2</v>
+      </c>
+      <c r="G111" s="3">
         <f t="shared" si="2"/>
-        <v>10.94899741488978</v>
-      </c>
-      <c r="D111" s="3">
+        <v>1.7792615920235997</v>
+      </c>
+      <c r="H111" s="3">
         <f t="shared" si="2"/>
-        <v>-0.18800499183680808</v>
-      </c>
-      <c r="E111" s="44">
-        <v>10.917728701520293</v>
-      </c>
-      <c r="F111" s="44">
-        <v>0.84852813742385802</v>
-      </c>
-      <c r="G111" s="3">
-        <f t="shared" si="3"/>
-        <v>1.7792615920235997</v>
-      </c>
-      <c r="H111" s="3">
-        <f t="shared" si="3"/>
         <v>-7.3918385657412197E-2</v>
       </c>
     </row>
@@ -6688,25 +6776,25 @@
         <v>1.7071919325222424</v>
       </c>
       <c r="C112" s="3">
+        <f t="shared" si="1"/>
+        <v>13.023953350140621</v>
+      </c>
+      <c r="D112" s="3">
+        <f t="shared" si="1"/>
+        <v>0.64585196792768818</v>
+      </c>
+      <c r="E112" s="44">
+        <v>2.7756748299753276</v>
+      </c>
+      <c r="F112" s="44">
+        <v>-8.8579348230531263E-2</v>
+      </c>
+      <c r="G112" s="3">
         <f t="shared" si="2"/>
-        <v>13.023953350140621</v>
-      </c>
-      <c r="D112" s="3">
+        <v>2.1164513145924029</v>
+      </c>
+      <c r="H112" s="3">
         <f t="shared" si="2"/>
-        <v>0.64585196792768818</v>
-      </c>
-      <c r="E112" s="44">
-        <v>13.039049045079935</v>
-      </c>
-      <c r="F112" s="44">
-        <v>0.141421356237311</v>
-      </c>
-      <c r="G112" s="3">
-        <f t="shared" si="3"/>
-        <v>2.1164513145924029</v>
-      </c>
-      <c r="H112" s="3">
-        <f t="shared" si="3"/>
         <v>0.25393120882831127</v>
       </c>
     </row>
@@ -6760,7 +6848,7 @@
       </c>
       <c r="F116" s="38">
         <f>_xlfn.COVARIANCE.S(E88:E112,E88:E112)</f>
-        <v>37.753333333333323</v>
+        <v>1.7056034803123776</v>
       </c>
       <c r="G116" s="38"/>
     </row>
@@ -6781,11 +6869,11 @@
       </c>
       <c r="F117" s="39">
         <f>_xlfn.COVARIANCE.S(E88:E112,F88:F112)</f>
-        <v>1.8916666666666666</v>
+        <v>-3.0993726104118952E-16</v>
       </c>
       <c r="G117" s="39">
         <f>_xlfn.COVARIANCE.S(F88:F112,F88:F112)</f>
-        <v>6.583333333333333</v>
+        <v>0.29439651968762198</v>
       </c>
     </row>
   </sheetData>
@@ -6798,11 +6886,10 @@
     <hyperlink ref="L73" r:id="rId5" display="https://zhuanlan.zhihu.com/p/234967628"/>
     <hyperlink ref="C53" r:id="rId6" display="https://www.geogebra.org/m/rjam6ege"/>
     <hyperlink ref="C84" r:id="rId7" display="https://www.geogebra.org/m/c5s9yhbp"/>
-    <hyperlink ref="V7" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
-  <drawing r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -6810,7 +6897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE117"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
@@ -8761,7 +8848,7 @@
   <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -9457,7 +9544,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F4"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
